--- a/Manipulation.xlsx
+++ b/Manipulation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan\Darshan\CPR\Final Project V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E6A3F46-5D95-41EE-9302-FA3E96111D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2E6A3F46-5D95-41EE-9302-FA3E96111D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80211F6F-8A17-43FF-B0B7-3C8A9FC24C6F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{84A01430-54B0-4090-8100-7384CBB36DBE}"/>
+    <workbookView xWindow="2500" yWindow="1720" windowWidth="16920" windowHeight="10450" xr2:uid="{84A01430-54B0-4090-8100-7384CBB36DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Version 1</t>
   </si>
@@ -425,12 +425,116 @@
   <si>
     <t>When inputting a lowercase 'q' the program successfully exits</t>
   </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Run by:</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Description </t>
+    </r>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>manipulating()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Receiving values in numbers in 1st string and 2nd srting  </t>
+  </si>
+  <si>
+    <t>"3" as a first string "6" as a second string</t>
+  </si>
+  <si>
+    <t>In this strcmp() function will compare 1st string and 2nd string and output will be string1 is less than string2</t>
+  </si>
+  <si>
+    <t>The function is working as expected</t>
+  </si>
+  <si>
+    <t>"6" as a first string "3" as a second string</t>
+  </si>
+  <si>
+    <t>In this strcmp() function will compare 1st string and 2nd string and output will be: string1 is greater than string2</t>
+  </si>
+  <si>
+    <t>+ Exiting the application</t>
+  </si>
+  <si>
+    <t>The function exit the application by printing the closing statement</t>
+  </si>
+  <si>
+    <t>The program qutis as expected</t>
+  </si>
+  <si>
+    <t>+ Receiving values in alphabets  in 1st string and 2nd string</t>
+  </si>
+  <si>
+    <t>"a" as a first string "b" as a second string</t>
+  </si>
+  <si>
+    <t>- Accepting 1st or 2nd string more than 79 characters in length</t>
+  </si>
+  <si>
+    <t>open the application and enter  more than 79 characters in string 1st or in 2nd string</t>
+  </si>
+  <si>
+    <t>The function should give an error if any of the two strings are more than 79 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is accepting more than 79 characters and strcmp() function is combining.  </t>
+  </si>
+  <si>
+    <t>Recommended fix: There should be a condition which will check length of 1st string and reprompt if length exceeds 79 characters and same goes with 2nd string.</t>
+  </si>
+  <si>
+    <t>- Accepts newline as a string input in 1st string or in 2nd string</t>
+  </si>
+  <si>
+    <t>Open the application, enter a newline in the 1st string or in the 2nd string</t>
+  </si>
+  <si>
+    <t>It should give an error on the screen, if a newline is entered as input</t>
+  </si>
+  <si>
+    <t>It is working by taking a grabage value instead of newline.</t>
+  </si>
+  <si>
+    <t>Recommended fix: There should  be a condition where if a newline is entered, it should prompt the user for string input again instead of proceeding with strcmp() function.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +610,18 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +646,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -639,60 +759,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4CCAA16C-BBB4-4402-96AB-2A6A092BE97A}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1019,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273E04E5-3902-4F93-9E53-69EBD28AF865}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,176 +1338,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="232" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:7" ht="212.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="100" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="162.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="175" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="162.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F8">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -1218,6 +1693,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1331,15 +1815,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1347,13 +1822,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555CCF16-74AD-4B3D-8831-DACC411813AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7302CB55-43A0-418F-A601-DACABB80195E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7302CB55-43A0-418F-A601-DACABB80195E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555CCF16-74AD-4B3D-8831-DACC411813AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D680FD11-8BC0-407F-A6C0-C3B15B37DF52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D680FD11-8BC0-407F-A6C0-C3B15B37DF52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Manipulation.xlsx
+++ b/Manipulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2E6A3F46-5D95-41EE-9302-FA3E96111D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80211F6F-8A17-43FF-B0B7-3C8A9FC24C6F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{2E6A3F46-5D95-41EE-9302-FA3E96111D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF38970-830C-4B1B-A0F7-9AFF9DF3CAD4}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1720" windowWidth="16920" windowHeight="10450" xr2:uid="{84A01430-54B0-4090-8100-7384CBB36DBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{84A01430-54B0-4090-8100-7384CBB36DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,12 +283,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{61D5D4FB-C43A-4A3B-9B8C-1F3DC9C3C625}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Version 1</t>
   </si>
@@ -529,12 +570,66 @@
   <si>
     <t>Recommended fix: There should  be a condition where if a newline is entered, it should prompt the user for string input again instead of proceeding with strcmp() function.</t>
   </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manipulating() strstr() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Receiving string values in bigstring and substring  </t>
+  </si>
+  <si>
+    <t>In this strstr() function will search substring in bigstring and output will be 0 as 'a' is indexed at 0</t>
+  </si>
+  <si>
+    <t>In this strstr() function will search substring in bigstring and output will be 7 as 's' is indexed at 7</t>
+  </si>
+  <si>
+    <t>Open the application and enter q in the bigstring input.  Input: q</t>
+  </si>
+  <si>
+    <t>The program quit as expected</t>
+  </si>
+  <si>
+    <t>open the application and enter abcdef in the bigstring input, and d in 2nd input. Input: abcdef and then input: d</t>
+  </si>
+  <si>
+    <t>In this strstr() function will search substring in bigstring and output will be 3 as 's' is indexed at 3</t>
+  </si>
+  <si>
+    <t>- Accepting substring or bigstring more than 79 characters in length</t>
+  </si>
+  <si>
+    <t>open the application and enter  more than 79 characters in bigstring or substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is accepting more than 79 characters and strcstr() function is searching also.  </t>
+  </si>
+  <si>
+    <t>Recommended fix: There should be a condition which will check length of bigstring and reprompt if length exceeds 79 characters and same goes with substring.</t>
+  </si>
+  <si>
+    <t>- Accepts newline as a string input in substring or bigstring</t>
+  </si>
+  <si>
+    <t>Open the application, enter a newline in the bigstring or substring</t>
+  </si>
+  <si>
+    <t>Recommended fix: There should  be a condition where if a newline is entered, it should prompt the user for string input again instead of proceeding with strstr() function.</t>
+  </si>
+  <si>
+    <t>open the application and enter darshanprajapati in the bigstring input, and darshan in 2nd input. Input: darshanprajapati and then input: darshan</t>
+  </si>
+  <si>
+    <t>open the application and enter andrei in the bigstring input, and a in 2nd input. Input: andrie and then input: a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +715,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -887,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -928,6 +1028,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,58 +1094,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1025,6 +1170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273E04E5-3902-4F93-9E53-69EBD28AF865}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1338,13 +1487,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1507,177 +1656,347 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="162.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="175" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="162.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="31" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="175" x14ac:dyDescent="0.35">
+      <c r="A21" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="175" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="175" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="150" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F8">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -1693,15 +2012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1815,6 +2125,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1822,14 +2141,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7302CB55-43A0-418F-A601-DACABB80195E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555CCF16-74AD-4B3D-8831-DACC411813AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1845,6 +2156,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7302CB55-43A0-418F-A601-DACABB80195E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D680FD11-8BC0-407F-A6C0-C3B15B37DF52}">
   <ds:schemaRefs>
